--- a/docs/time_log.xlsx
+++ b/docs/time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wwu\senior_project\PyTorch-Buildings-GUI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A868E608-E8F4-4F79-9C9A-ED55D67E2C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07CF2E5-F3F5-42E9-9BEE-23E62E487702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CF7FA5C-C537-41DA-AE38-F717F5C08020}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Lily</t>
+  </si>
+  <si>
+    <t>Didn’t change any code</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,10 +491,18 @@
       <c r="C2" s="3">
         <v>0.36805555555555558</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2-C2</f>
+        <v>6.25E-2</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_log.xlsx
+++ b/docs/time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wwu\senior_project\PyTorch-Buildings-GUI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07CF2E5-F3F5-42E9-9BEE-23E62E487702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214408E2-6E98-443D-967A-A731613B5FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CF7FA5C-C537-41DA-AE38-F717F5C08020}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Didn’t change any code</t>
+  </si>
+  <si>
+    <t>Go through tutorials more</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359C6506-B714-475E-B77A-8B1D69BF6D99}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,6 +508,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>46071</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/time_log.xlsx
+++ b/docs/time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wwu\senior_project\PyTorch-Buildings-GUI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214408E2-6E98-443D-967A-A731613B5FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EEA27B-A2BD-45AC-810C-BDE4CC7D9E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CF7FA5C-C537-41DA-AE38-F717F5C08020}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Go through tutorials more</t>
+  </si>
+  <si>
+    <t>Didn't change any code</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,11 +518,21 @@
       <c r="B3" s="2">
         <v>46071</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.47222222222222221</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E3" s="4">
+        <f>D3-C3</f>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_log.xlsx
+++ b/docs/time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wwu\senior_project\PyTorch-Buildings-GUI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EEA27B-A2BD-45AC-810C-BDE4CC7D9E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71999B2E-E336-4DD3-BBF1-4F86BF00C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CF7FA5C-C537-41DA-AE38-F717F5C08020}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359C6506-B714-475E-B77A-8B1D69BF6D99}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,6 +535,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>46076</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.52986111111111112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/time_log.xlsx
+++ b/docs/time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wwu\senior_project\PyTorch-Buildings-GUI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71999B2E-E336-4DD3-BBF1-4F86BF00C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17902613-8196-4CF5-8F36-B1F554EBB4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CF7FA5C-C537-41DA-AE38-F717F5C08020}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,6 +545,13 @@
       <c r="C4" s="3">
         <v>0.52986111111111112</v>
       </c>
+      <c r="D4" s="3">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="E4" s="4">
+        <f>D4-C4</f>
+        <v>3.7499999999999978E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
